--- a/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
+++ b/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
@@ -108,22 +108,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>step_1.0_step</t>
-  </si>
-  <si>
-    <t>step_1.0_stop</t>
-  </si>
-  <si>
-    <t>step_1.0_start</t>
+    <t>step_1_start</t>
+  </si>
+  <si>
+    <t>step_1_stop</t>
+  </si>
+  <si>
+    <t>step_1_step</t>
+  </si>
+  <si>
+    <t>step_-1_start</t>
+  </si>
+  <si>
+    <t>step_-1_stop</t>
   </si>
   <si>
     <t>step_-1_step</t>
-  </si>
-  <si>
-    <t>step_-1_stop</t>
-  </si>
-  <si>
-    <t>step_-1_start</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -930,7 +930,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -952,7 +952,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
+++ b/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>step</t>
   </si>
@@ -108,22 +108,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>step_1_start</t>
-  </si>
-  <si>
-    <t>step_1_stop</t>
-  </si>
-  <si>
-    <t>step_1_step</t>
-  </si>
-  <si>
-    <t>step_-1_start</t>
-  </si>
-  <si>
-    <t>step_-1_stop</t>
-  </si>
-  <si>
-    <t>step_-1_step</t>
+    <t>step_1</t>
+  </si>
+  <si>
+    <t>step_-1</t>
   </si>
 </sst>
 </file>
@@ -875,21 +863,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -899,8 +893,14 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -908,50 +908,12 @@
         <v>31</v>
       </c>
       <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>

--- a/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
+++ b/test/instron-test-files/data/processed/data (stage=raw | item=tracking | v0).xlsx
@@ -108,10 +108,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>step_1</t>
-  </si>
-  <si>
-    <t>step_-1</t>
+    <t>step.idx_1</t>
+  </si>
+  <si>
+    <t>step.idx_neg_1</t>
   </si>
 </sst>
 </file>
